--- a/biology/Médecine/Centre_hospitalier_de_la_Polynésie_française/Centre_hospitalier_de_la_Polynésie_française.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_la_Polynésie_française/Centre_hospitalier_de_la_Polynésie_française.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_de_la_Polyn%C3%A9sie_fran%C3%A7aise</t>
+          <t>Centre_hospitalier_de_la_Polynésie_française</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier de la Polynésie française (CHPF) est un hôpital situé à Pirae. Il a remplacé l'ancien hôpital de Mamao qui datait des années 1960. Il a été construit dans les années 2000 et terminé en 2012. Toutes les spécialités sont représentées dans cet hôpital. 
-Un système de climatisation  SWAC utilisant l'eau froide des profondeurs de l'océan permet de climatiser sans électricité[1].
-Toutefois, cet établissement subit un vieillissement prématuré[2]
+Un système de climatisation  SWAC utilisant l'eau froide des profondeurs de l'océan permet de climatiser sans électricité.
+Toutefois, cet établissement subit un vieillissement prématuré
 Sa maternité porte le nom d'Andréa de Balmann (1913-2007), première femme polynésienne à obtenir un doctorat en médecine, en 1939.
 </t>
         </is>
